--- a/output/Europese Digitaliseringsinitiatieven.xlsx
+++ b/output/Europese Digitaliseringsinitiatieven.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Aangekondigd" sheetId="1" r:id="rId1"/>
-    <sheet name="Alle initiatieven" sheetId="2" r:id="rId2"/>
-    <sheet name="Aangenomen of Voltooid" sheetId="3" r:id="rId3"/>
+    <sheet name="Aangenomen of Voltooid" sheetId="1" r:id="rId1"/>
+    <sheet name="Aangekondigd" sheetId="2" r:id="rId2"/>
+    <sheet name="Geblokkeerd" sheetId="3" r:id="rId3"/>
     <sheet name="Bijna adoptie" sheetId="4" r:id="rId4"/>
-    <sheet name="Geblokkeerd" sheetId="5" r:id="rId5"/>
-    <sheet name="Ingediend" sheetId="6" r:id="rId6"/>
-    <sheet name="Ingetrokken" sheetId="7" r:id="rId7"/>
+    <sheet name="Ingediend" sheetId="5" r:id="rId5"/>
+    <sheet name="Ingetrokken" sheetId="6" r:id="rId6"/>
+    <sheet name="Alle initiatieven" sheetId="7" r:id="rId7"/>
     <sheet name="Log" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,30 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="367">
-  <si>
-    <t>Niet-regelgevend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="371">
   <si>
     <t>Legislative</t>
   </si>
   <si>
+    <t>Niet regelgevend</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Impact IenW</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
     <t>Undefined</t>
   </si>
   <si>
-    <t>Aangekondigd</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Toelichting</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Impact IenW</t>
+    <t>test</t>
   </si>
   <si>
     <t>Status</t>
@@ -403,19 +406,22 @@
     <t>Amendment of type approval rules for motor vehicles with respect to conformity factors for NOx emissions</t>
   </si>
   <si>
-    <t>Ingediend</t>
-  </si>
-  <si>
-    <t>Geblokkeerd</t>
-  </si>
-  <si>
-    <t>Bijna adoptie</t>
-  </si>
-  <si>
-    <t>Aangenomen of Voltooid</t>
-  </si>
-  <si>
-    <t>Ingetrokken</t>
+    <t>Announced</t>
+  </si>
+  <si>
+    <t>Tabled</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Close to adoption</t>
+  </si>
+  <si>
+    <t>Adopted / Completed</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
   </si>
   <si>
     <t>The previous European Commission presented a non-legislative measure in a communication '5G for Europe: an action plan', which foresees a common EU calendar for a coordinated 5G commercial launch in 2020, as well as joint work with Member States and industry stakeholders to identify and allocate spectrum bands for 5G, organise pan-European 5G trials as of 2018, promote common global 5G standards and encourage the adoption of national 5G deployment roadmaps across all EU Member States. Furthermore, Commission has set three related objectives for 2025: 
@@ -3881,13 +3887,19 @@
     <t>Updated columns</t>
   </si>
   <si>
-    <t>Runtime</t>
-  </si>
-  <si>
-    <t>10/19/2024, 16:45:59</t>
-  </si>
-  <si>
-    <t>0 minutes:51 seconds</t>
+    <t>10/20/2024, 16:40:06</t>
+  </si>
+  <si>
+    <t>10/20/2024, 16:40:25</t>
+  </si>
+  <si>
+    <t>10/20/2024, 16:44:10</t>
+  </si>
+  <si>
+    <t>10/20/2024, 16:45:56</t>
+  </si>
+  <si>
+    <t>Revision of airport charges - Type</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB3DEFF"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3939,19 +3951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE1FFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3DEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0171C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1FFEF"/>
+        <fgColor rgb="FFF8CEB2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3964,18 +3988,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CEB2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4043,7 +4055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -4054,6 +4065,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4349,35 +4361,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-5g-action-plan", "5G action plan")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-vehicles-hired-for-the-carriage-of-goods-by-road", " Use of vehicles hired without drivers for the carriage of goods by road")</f>
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -4385,16 +4394,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cyber-security-package", "Cybersecurity package")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-rail-passengers-rights-and-obligations-(recast)", "Recast of the Regulation on rail passengers’ rights and obligations")</f>
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
@@ -4402,16 +4408,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-airport-charges", "Revision of airport charges")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-online-platforms-disinformation", "Online platforms, the digital single market and disinformation")</f>
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
@@ -4419,16 +4422,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-age-strategy", "Europe fit for the digital age strategy")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-white-paper-artificial-intelligence-and-follow-up", "White paper on artificial intelligence including follow-up")</f>
         <v>0</v>
       </c>
       <c r="C5" s="4"/>
@@ -4436,33 +4436,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-research-area", "Future of Research and Innovation and the European Research Area")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-cef-2021-2027", " Proposal for a regulation establishing the Connecting Europe Facility 2021-2027")</f>
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-horizon-europe-missions", "Horizon Europe research and innovation missions (non-legislative, Q4 2020)")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-eu-space-programme", "EU Space Programme")</f>
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
@@ -4470,33 +4464,27 @@
         <v>0</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-air-services", "Revision of the provision of air services")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-horizon-europe-fp", "Proposal for a Regulation establishing Horizon Europe - the Framework Programme for Research and Innovation 2021-2027")</f>
         <v>0</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-industrial-strategy", "A new industrial strategy")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-european-defence-fund", "Proposal for a Regulation establishing the European Defence Fund")</f>
         <v>0</v>
       </c>
       <c r="C9" s="4"/>
@@ -4504,16 +4492,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-data-strategy", "A European Strategy for Data")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-digital-europe-programme", " Proposal for a regulation establishing the Digital Europe Programme 2021-2027")</f>
         <v>0</v>
       </c>
       <c r="C10" s="3"/>
@@ -4521,16 +4506,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-fintech-action-plan", "Digital Finance Strategy for the EU")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-euratom-research-programme", "Council regulation establishing Research and Training Programme of the European Atomic Energy Community (Euratom) for the period 2021-2025")</f>
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
@@ -4538,16 +4520,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-enforcement-action-plan", "Single Market Enforcement Action Plan")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-programme-for-single-market-and-competitiveness-of-enterprises", " Programme for Single Market and Competitiveness of Enterprises")</f>
         <v>0</v>
       </c>
       <c r="C12" s="3"/>
@@ -4555,16 +4534,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-barriers-report", "Single Market Barriers Report")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-horizon-europe-sp", "Specific programme implementing Horizon Europe framework programme for research and innovation 2021–2027")</f>
         <v>0</v>
       </c>
       <c r="C13" s="4"/>
@@ -4572,16 +4548,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-sme-strategy", "Small and medium-sized enterprises (SMEs) strategy")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-cybersecurity-competence-centers", "Proposal for a regulation establishing the European cybersecurity industrial, technology and research competence centre")</f>
         <v>0</v>
       </c>
       <c r="C14" s="3"/>
@@ -4589,16 +4562,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-synergies-between-civil-defence-and-space-industries", "Action plan on synergies between civil, defence and space industries")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-roaming-regulation-review", "Roaming regulation review")</f>
         <v>0</v>
       </c>
       <c r="C15" s="4"/>
@@ -4606,84 +4576,69 @@
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-europe-s-digital-decade-2030-digital-targets", "Communication on Europe's digital decade: 2030 digital targets")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-white-paper-instrument-on-foreign-subsidies", "White Paper on levelling the playing field as regards foreign subsidies")</f>
         <v>0</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-levy", "Digital levy and a proposal for digital levy as own resource")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-common-chargers-for-mobile-phones", "Common chargers for mobile phones and similar devices")</f>
         <v>0</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-competition-policy", "Review of competition policy")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-nis-directive", "Review of the directive on security of network and information systems")</f>
         <v>0</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-computerised-reservation-systems", "Legislative proposal on computerised reservation systems (REFIT)")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act", "Proposal for a regulation of the European Parliament and of the Council on a single market for digital services (digital services act) and amending Directive 2000/31/EC")</f>
         <v>0</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-retail-digital-payments", "Renewed strategy for modern and safe retail payments")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-al-legislative-proposal-to-the-commission-on-the-right-to-disconnect", "The right to disconnect")</f>
         <v>0</v>
       </c>
       <c r="C20" s="3"/>
@@ -4691,50 +4646,41 @@
         <v>0</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-multimodal-digital-mobility-services", "Legislative proposal on multimodal digital mobility services")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eid", "Revision of the eIDAS Regulation – European Digital Identity (EUid)")</f>
         <v>0</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-asbestos-in-buildings", "Proposal of a directive on screening, registration and monitoring of asbestos in buildings")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-data-act", "Data act")</f>
         <v>0</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-the-single-market-at-30", "The Single Market at 30")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-legislative-proposal-on-levelling-the-playing-field-for-foreign-subsidies", "White Paper leading to legislative proposal on levelling the playing field for foreign subsidies")</f>
         <v>0</v>
       </c>
       <c r="C23" s="4"/>
@@ -4742,16 +4688,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-metaverse", "Non-legislative initiative on virtual worlds, such as metaverses")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act-commercial-and-civil-law-rules", "Digital Services Act: adapting commercial and civil law rules for commercial entities operating online")</f>
         <v>0</v>
       </c>
       <c r="C24" s="3"/>
@@ -4759,50 +4702,42 @@
         <v>0</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-radio-spectrum-policy-programme", "New Radio Spectrum Policy Programme")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-ai-ethical-framework", "Framework of ethical aspects of artificial intelligence, robotics and related technologies")</f>
         <v>0</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-regulatory-framework-for-hyperloop", "EU regulatory framework for hyperloop")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-artificial-intelligence-civil-liability-regime", "European Parliament resolution on civil liability regime for artificial intelligence")</f>
         <v>0</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-green-deal-industrial-plan-for-the-net-zero-age", "Green Deal Industrial Plan for the Net-Zero Age")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act-improving-the-functioning-of-the-single-market", "Digital services act: legislative-initiative report with recommendations to the European
+Commission on improving the functioning of the single market.")</f>
         <v>0</v>
       </c>
       <c r="C27" s="4"/>
@@ -4810,16 +4745,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-space-law", "EU space law ")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-design-requirements-and-consumer-rights-for-electronics", "New design requirements and consumer rights for electronics pursuant to Directive 2009/125/EC")</f>
         <v>0</v>
       </c>
       <c r="C28" s="3"/>
@@ -4827,26 +4759,399 @@
         <v>1</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="4">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-strategy-on-space-data-economy", "Strategy on space data economy ")</f>
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-public-procurement", "Public procurement: Follow-up to the White Paper on foreign subsidies")</f>
         <v>0</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-database-directive", "Review of the Database Directive ")</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-machinery-directive", "Revision of the Machinery Directive (REFIT)")</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cross-sectoral-financial-services-act-1", "Digital operational resilience for the financial sector")</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cross-sectoral-financial-services-act-2", "Fintech Amending Directive: Temporary exemption for multilateral trading facilities (MTFs) and amendment of certain EU financial services directives")</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-crypto-assets-1", "Proposal for a regulation of the European Parliament and of the Council on markets in crypto-assets")</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-crypto-assets-2", "Proposal for a Regulation on a pilot regime for market infrastructures based on distributed ledger technology (DLT)")</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-markets-act", "Proposal for a regulation of the European Parliament and of the Council  on contestable and fair markets in the digital sector (Digital Markets Act)")</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-data-governance-act", "Proposal for a Regulation on European Data Governance")</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-regulation-on-artificial-intelligence", "Artificial intelligence act")</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-distortive-foreign-subsidies", "Regulation on distortive foreign subsidies")</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-sports-events-in-digital-environment", "Challenges of sports events’ organisers in the digital environment")</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-building-an-eu-space-based-global-secure-communication-system", "Proposal for a Regulation establishing the Union Secure Connectivity Programme for the period 2023-2027 ('infrastructure for Resilience, Interconnection and Security by Satellite’- IRIS²)")</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-chips-act-(semiconductors)", "European Chips Act (semi-conductors)")</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-digital-interoperabilioty-strategy", "Proposal to adopt an interoperable Europe act")</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-path-to-the-digital-decade", "2030 policy programme “Path to the Digital Decade”")</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-proposal-for-cybersecurity-regulation", "Proposal for a regulation laying down measures on cybersecurity at the institutions, bodies, offices and agencies of the Union")</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-declaration-on-digital-rights-and-principles", "European Declaration on Digital Rights and Principles for the Digital Decade")</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-better-internet-for-kids-(bik)", "A Digital Decade for children and youth: the new European strategy for a better internet for kids (BIK+)")</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-defence-industry-reinforcement-through-common-procurement-act-(edirpa)", "Regulation establishing the European defence industry reinforcement through common procurement act (EDIPRA)")</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-critical-raw-material-act", "European critical raw materials act")</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-broadband-cost-reduction-directive", "Gigabit Infrastructure Act")</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-short-term-accommodation-rental-services", "Data collection and sharing relating to short-term accommodation rental services")</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-net-zero-industry-act", "Net-zero industry act")</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-labelling-of-eu-fertilising-products", "Proposal for a regulation of the European Parliament and of the Council  amending Regulation (EU) 2019/1009 as regards the digital labelling of EU fertilising products")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-act-in-support-of-ammunition-procurement-(asap)", "Regulation of the European Parliament and of the Council
+on establishing the Act in Support of Ammunition Production")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-strategic-technologies-for-europe-platform-(‘step’)", "Strategic Technologies for Europe Platform (‘STEP’) ")</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-supercomputer-capacity-for-artificial-intelligence-start-ups", "European supercomputer capacity for artificial intelligence start-ups")</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4854,6 +5159,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-5g-action-plan", "5G action plan")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cyber-security-package", "Cybersecurity package")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-airport-charges", "Revision of airport charges")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-age-strategy", "Europe fit for the digital age strategy")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-research-area", "Future of Research and Innovation and the European Research Area")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-horizon-europe-missions", "Horizon Europe research and innovation missions (non-legislative, Q4 2020)")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-air-services", "Revision of the provision of air services")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-industrial-strategy", "A new industrial strategy")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-data-strategy", "A European Strategy for Data")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-fintech-action-plan", "Digital Finance Strategy for the EU")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-enforcement-action-plan", "Single Market Enforcement Action Plan")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-barriers-report", "Single Market Barriers Report")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-sme-strategy", "Small and medium-sized enterprises (SMEs) strategy")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-synergies-between-civil-defence-and-space-industries", "Action plan on synergies between civil, defence and space industries")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-europe-s-digital-decade-2030-digital-targets", "Communication on Europe's digital decade: 2030 digital targets")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-levy", "Digital levy and a proposal for digital levy as own resource")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-competition-policy", "Review of competition policy")</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-computerised-reservation-systems", "Legislative proposal on computerised reservation systems (REFIT)")</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-retail-digital-payments", "Renewed strategy for modern and safe retail payments")</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-multimodal-digital-mobility-services", "Legislative proposal on multimodal digital mobility services")</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-asbestos-in-buildings", "Proposal of a directive on screening, registration and monitoring of asbestos in buildings")</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-the-single-market-at-30", "The Single Market at 30")</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-metaverse", "Non-legislative initiative on virtual worlds, such as metaverses")</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-radio-spectrum-policy-programme", "New Radio Spectrum Policy Programme")</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-regulatory-framework-for-hyperloop", "EU regulatory framework for hyperloop")</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-green-deal-industrial-plan-for-the-net-zero-age", "Green Deal Industrial Plan for the Net-Zero Age")</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-space-law", "EU space law ")</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-strategy-on-space-data-economy", "Strategy on space data economy ")</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-e-privacy-reform", " Proposal for a regulation on privacy and electronic communications")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-allocation-of-slots-at-eu-airports-common-rules-recast", "Allocation of slots at EU airports: common rules - recast")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-common-rules-for-coach-and-bus-services", " Common rules for access to the international market for coach and bus services")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-discontinuing-seasonal-changes-of-time", "Directive discontinuing seasonal changes of time")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-improving-working-conditions-of-platform-workers", "Initiative to improve the working conditions of people working in the platform economy")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-emergency-instrument", "Single market emergency instrument")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-cyber-resilience-act", "Horizontal cybersecurity requirements for products with digital elements")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-design-directive-and-of-the-community-design-regulation", "Revision of the Community Design Regulation")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-product-liability-directive", "New Product Liability Directive")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cyber-solidarity-act", "Regulation on measures to strengthen solidarity and capacities in the Union to detect, prepare for and respond to cybersecurity threats and incidents")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-design-directive-(recast)", "Revision of the Design Directive (Recast)")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-managed-security-services", "Managed security services")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smei-package-regulation-on-emergency-procedures", "Proposal for a regulation on emergency procedures for the conformity assessment,
+adoption of common specifications and market surveillance due to a Single Market
+emergency")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smei-package-directive-on-emergency-procedures", "Proposal for a directive of the European Parliament and of the Council on emergency procedures for the
+conformity assessment, adoption of common specifications and market surveillance due to a Single Market emergency")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-education-action-plan", "Digital education action plan (2021-2027)")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-open-finance-frameworkb", "Legislative proposal for a new open finance framework")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-supplementary-protection-certificates", "Revision of the legislation on supplementary protection certificates for plant protection products (RECAST) ")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-piracy-of-live-content", "Recommendation on piracy of live content")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-ai-liability-directive", "AI liability directive")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-late-payments-directive-revision", "Revision of the late payments directive")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-tools-and-processes-in-company-law", "Initiative to expand and upgrade the use of digital tools and processes in company law")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-patent-licensing-package-1", "Standard essential patents (SEP) regulation ")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-patent-licensing-package-2-1", "Unitary supplementary protection certificate for plant protection products")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-compulsory-licensing-of-patents-for-crisis-management", "Proposal for a regulation on compulsory licensing for crisis management and amending Regulation (EC) 816/2006")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-unitary-supplementary-certificate-for-medicinal-products", "Unitary supplementary certificate for medicinal products")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-supplementary-protection-certificates-for-medicinal-products", "Revision of the legislation on supplementary protection certificates for medicinal products (Recast)")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-market-surveillance-of-products", "Market surveillance of products")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-services-e-card", "Services e-card")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smit", "Single Market Information Tool (SMIT)")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-services-notification-procedure", "Services notification procedure")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-type-approval-of-motor-vehicles-conformity-factors-for-nox-emissions", "Amendment of type approval rules for motor vehicles with respect to conformity factors for NOx emissions")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H115"/>
   <sheetViews>
@@ -4863,25 +6136,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4889,19 +6162,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>244</v>
+        <v>132</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4909,19 +6185,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>245</v>
+        <v>133</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4929,19 +6208,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>246</v>
+        <v>134</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4949,19 +6228,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>247</v>
+        <v>135</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4969,19 +6248,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>248</v>
+        <v>136</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4989,19 +6268,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>249</v>
+        <v>137</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5009,19 +6288,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>250</v>
+        <v>138</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5029,19 +6308,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>251</v>
+        <v>139</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5049,19 +6328,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>252</v>
+        <v>140</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5069,19 +6348,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>253</v>
+        <v>141</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5089,19 +6368,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>254</v>
+        <v>142</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5109,19 +6388,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>255</v>
+        <v>143</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5129,19 +6408,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>256</v>
+        <v>144</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5149,19 +6428,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>257</v>
+        <v>145</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5169,19 +6448,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>258</v>
+        <v>146</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5189,19 +6468,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>259</v>
+        <v>147</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5209,19 +6488,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>260</v>
+        <v>148</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5229,19 +6508,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>261</v>
+        <v>149</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5249,19 +6528,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>262</v>
+        <v>150</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5269,19 +6548,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>263</v>
+        <v>151</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5289,19 +6568,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>264</v>
+        <v>152</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5309,19 +6588,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>265</v>
+        <v>153</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5329,19 +6608,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>266</v>
+        <v>154</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5349,19 +6628,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>267</v>
+        <v>155</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5369,19 +6648,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>268</v>
+        <v>156</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5389,19 +6668,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>269</v>
+        <v>157</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5409,19 +6688,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>270</v>
+        <v>158</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5429,19 +6708,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>271</v>
+        <v>159</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5449,19 +6728,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>272</v>
+        <v>160</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5469,19 +6748,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>273</v>
+        <v>161</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5489,19 +6768,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>274</v>
+        <v>162</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5509,19 +6788,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>275</v>
+        <v>163</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5529,19 +6808,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>276</v>
+        <v>164</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5549,19 +6828,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>277</v>
+        <v>165</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5569,19 +6848,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>278</v>
+        <v>166</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5589,19 +6868,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>279</v>
+        <v>167</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5609,19 +6888,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>280</v>
+        <v>168</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5629,19 +6908,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>281</v>
+        <v>169</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5649,19 +6928,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>282</v>
+        <v>170</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5669,19 +6948,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>283</v>
+        <v>171</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5689,19 +6968,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>284</v>
+        <v>172</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5709,19 +6988,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>285</v>
+        <v>173</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5729,19 +7008,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>286</v>
+        <v>174</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5749,19 +7028,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>287</v>
+        <v>175</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5769,19 +7048,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>288</v>
+        <v>176</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5789,19 +7068,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>289</v>
+        <v>177</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5809,19 +7088,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>290</v>
+        <v>178</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5829,19 +7108,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>291</v>
+        <v>179</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5849,19 +7128,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>292</v>
+        <v>180</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5869,19 +7148,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>293</v>
+        <v>181</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5889,19 +7168,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>294</v>
+        <v>182</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5909,19 +7188,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>295</v>
+        <v>183</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5929,19 +7208,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>296</v>
+        <v>184</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5949,19 +7228,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>297</v>
+        <v>185</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5969,19 +7248,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>298</v>
+        <v>186</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5989,19 +7268,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>299</v>
+        <v>187</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6009,19 +7288,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>300</v>
+        <v>188</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6029,19 +7308,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>301</v>
+        <v>189</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6049,19 +7328,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>188</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>302</v>
+        <v>190</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6069,19 +7348,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G61" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>303</v>
+        <v>191</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6089,19 +7368,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>304</v>
+        <v>192</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6109,19 +7388,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>305</v>
+        <v>193</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6129,19 +7408,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>306</v>
+        <v>194</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6149,19 +7428,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>307</v>
+        <v>195</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6169,19 +7448,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G66" t="s">
-        <v>194</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>308</v>
+        <v>196</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6189,19 +7468,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>309</v>
+        <v>197</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6209,19 +7488,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>310</v>
+        <v>198</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6229,19 +7508,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>311</v>
+        <v>199</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6249,19 +7528,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
-        <v>198</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>312</v>
+        <v>200</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6269,19 +7548,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>313</v>
+        <v>201</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6289,19 +7568,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>200</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>314</v>
+        <v>202</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6309,19 +7588,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>201</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>315</v>
+        <v>203</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6329,19 +7608,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>202</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>316</v>
+        <v>204</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6349,19 +7628,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>317</v>
+        <v>205</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6369,19 +7648,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
-        <v>204</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>318</v>
+        <v>206</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6389,19 +7668,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>319</v>
+        <v>207</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6409,19 +7688,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>320</v>
+        <v>208</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6429,19 +7708,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>207</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>321</v>
+        <v>209</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6449,19 +7728,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>322</v>
+        <v>210</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6469,19 +7748,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G81" t="s">
-        <v>209</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>323</v>
+        <v>211</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6489,19 +7768,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G82" t="s">
-        <v>210</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>324</v>
+        <v>212</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6509,19 +7788,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G83" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>325</v>
+        <v>213</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6529,19 +7808,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G84" t="s">
-        <v>212</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>326</v>
+        <v>214</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6549,19 +7828,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G85" t="s">
-        <v>213</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>327</v>
+        <v>215</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6569,19 +7848,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G86" t="s">
-        <v>214</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>328</v>
+        <v>216</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6589,19 +7868,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G87" t="s">
-        <v>215</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>329</v>
+        <v>217</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6609,19 +7888,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G88" t="s">
-        <v>216</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>330</v>
+        <v>218</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6629,19 +7908,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G89" t="s">
-        <v>217</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>331</v>
+        <v>219</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6649,19 +7928,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G90" t="s">
-        <v>218</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>332</v>
+        <v>220</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6669,19 +7948,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>219</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>333</v>
+        <v>221</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6689,19 +7968,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>220</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>334</v>
+        <v>222</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6709,19 +7988,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>335</v>
+        <v>223</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6729,19 +8008,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>336</v>
+        <v>224</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6749,19 +8028,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>223</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>337</v>
+        <v>225</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6769,19 +8048,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>338</v>
+        <v>226</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6789,19 +8068,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>339</v>
+        <v>227</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6809,19 +8088,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G98" t="s">
-        <v>226</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>340</v>
+        <v>228</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6829,19 +8108,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>227</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>341</v>
+        <v>229</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6849,19 +8128,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>342</v>
+        <v>230</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6869,19 +8148,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G101" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>343</v>
+        <v>231</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6889,19 +8168,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>230</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>344</v>
+        <v>232</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6909,19 +8188,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G103" t="s">
-        <v>231</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>345</v>
+        <v>233</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6929,19 +8208,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
-        <v>232</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>346</v>
+        <v>234</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6949,19 +8228,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>233</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>347</v>
+        <v>235</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6969,19 +8248,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G106" t="s">
-        <v>234</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>348</v>
+        <v>236</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6989,19 +8268,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G107" t="s">
-        <v>235</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>349</v>
+        <v>237</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7009,19 +8288,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G108" t="s">
-        <v>236</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>350</v>
+        <v>238</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7029,19 +8308,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G109" t="s">
-        <v>237</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>351</v>
+        <v>239</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7049,19 +8328,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G110" t="s">
-        <v>238</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>352</v>
+        <v>240</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7069,19 +8348,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>239</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>353</v>
+        <v>241</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7089,19 +8368,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>240</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>354</v>
+        <v>242</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7109,19 +8388,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G113" t="s">
-        <v>241</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>355</v>
+        <v>243</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7129,19 +8408,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>242</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>356</v>
+        <v>244</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7149,19 +8428,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>243</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>357</v>
+        <v>245</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -7285,1672 +8564,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:7">
+      <c r="B1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-vehicles-hired-for-the-carriage-of-goods-by-road", " Use of vehicles hired without drivers for the carriage of goods by road")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-rail-passengers-rights-and-obligations-(recast)", "Recast of the Regulation on rail passengers’ rights and obligations")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-online-platforms-disinformation", "Online platforms, the digital single market and disinformation")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-white-paper-artificial-intelligence-and-follow-up", "White paper on artificial intelligence including follow-up")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-cef-2021-2027", " Proposal for a regulation establishing the Connecting Europe Facility 2021-2027")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-eu-space-programme", "EU Space Programme")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-horizon-europe-fp", "Proposal for a Regulation establishing Horizon Europe - the Framework Programme for Research and Innovation 2021-2027")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-european-defence-fund", "Proposal for a Regulation establishing the European Defence Fund")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-digital-europe-programme", " Proposal for a regulation establishing the Digital Europe Programme 2021-2027")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-euratom-research-programme", "Council regulation establishing Research and Training Programme of the European Atomic Energy Community (Euratom) for the period 2021-2025")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-programme-for-single-market-and-competitiveness-of-enterprises", " Programme for Single Market and Competitiveness of Enterprises")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-mff-horizon-europe-sp", "Specific programme implementing Horizon Europe framework programme for research and innovation 2021–2027")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-cybersecurity-competence-centers", "Proposal for a regulation establishing the European cybersecurity industrial, technology and research competence centre")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-roaming-regulation-review", "Roaming regulation review")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-white-paper-instrument-on-foreign-subsidies", "White Paper on levelling the playing field as regards foreign subsidies")</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-common-chargers-for-mobile-phones", "Common chargers for mobile phones and similar devices")</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-nis-directive", "Review of the directive on security of network and information systems")</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act", "Proposal for a regulation of the European Parliament and of the Council on a single market for digital services (digital services act) and amending Directive 2000/31/EC")</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-al-legislative-proposal-to-the-commission-on-the-right-to-disconnect", "The right to disconnect")</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eid", "Revision of the eIDAS Regulation – European Digital Identity (EUid)")</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-data-act", "Data act")</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-legislative-proposal-on-levelling-the-playing-field-for-foreign-subsidies", "White Paper leading to legislative proposal on levelling the playing field for foreign subsidies")</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act-commercial-and-civil-law-rules", "Digital Services Act: adapting commercial and civil law rules for commercial entities operating online")</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-ai-ethical-framework", "Framework of ethical aspects of artificial intelligence, robotics and related technologies")</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-artificial-intelligence-civil-liability-regime", "European Parliament resolution on civil liability regime for artificial intelligence")</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-services-act-improving-the-functioning-of-the-single-market", "Digital services act: legislative-initiative report with recommendations to the European
-Commission on improving the functioning of the single market.")</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-design-requirements-and-consumer-rights-for-electronics", "New design requirements and consumer rights for electronics pursuant to Directive 2009/125/EC")</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-public-procurement", "Public procurement: Follow-up to the White Paper on foreign subsidies")</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-database-directive", "Review of the Database Directive ")</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-machinery-directive", "Revision of the Machinery Directive (REFIT)")</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cross-sectoral-financial-services-act-1", "Digital operational resilience for the financial sector")</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cross-sectoral-financial-services-act-2", "Fintech Amending Directive: Temporary exemption for multilateral trading facilities (MTFs) and amendment of certain EU financial services directives")</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-crypto-assets-1", "Proposal for a regulation of the European Parliament and of the Council on markets in crypto-assets")</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-crypto-assets-2", "Proposal for a Regulation on a pilot regime for market infrastructures based on distributed ledger technology (DLT)")</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-markets-act", "Proposal for a regulation of the European Parliament and of the Council  on contestable and fair markets in the digital sector (Digital Markets Act)")</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-data-governance-act", "Proposal for a Regulation on European Data Governance")</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-regulation-on-artificial-intelligence", "Artificial intelligence act")</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-distortive-foreign-subsidies", "Regulation on distortive foreign subsidies")</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-sports-events-in-digital-environment", "Challenges of sports events’ organisers in the digital environment")</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-building-an-eu-space-based-global-secure-communication-system", "Proposal for a Regulation establishing the Union Secure Connectivity Programme for the period 2023-2027 ('infrastructure for Resilience, Interconnection and Security by Satellite’- IRIS²)")</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-chips-act-(semiconductors)", "European Chips Act (semi-conductors)")</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-eu-digital-interoperabilioty-strategy", "Proposal to adopt an interoperable Europe act")</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-path-to-the-digital-decade", "2030 policy programme “Path to the Digital Decade”")</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-proposal-for-cybersecurity-regulation", "Proposal for a regulation laying down measures on cybersecurity at the institutions, bodies, offices and agencies of the Union")</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-declaration-on-digital-rights-and-principles", "European Declaration on Digital Rights and Principles for the Digital Decade")</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-better-internet-for-kids-(bik)", "A Digital Decade for children and youth: the new European strategy for a better internet for kids (BIK+)")</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-defence-industry-reinforcement-through-common-procurement-act-(edirpa)", "Regulation establishing the European defence industry reinforcement through common procurement act (EDIPRA)")</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-critical-raw-material-act", "European critical raw materials act")</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-review-of-the-broadband-cost-reduction-directive", "Gigabit Infrastructure Act")</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-short-term-accommodation-rental-services", "Data collection and sharing relating to short-term accommodation rental services")</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-net-zero-industry-act", "Net-zero industry act")</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-labelling-of-eu-fertilising-products", "Proposal for a regulation of the European Parliament and of the Council  amending Regulation (EU) 2019/1009 as regards the digital labelling of EU fertilising products")</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-act-in-support-of-ammunition-procurement-(asap)", "Regulation of the European Parliament and of the Council
-on establishing the Act in Support of Ammunition Production")</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-strategic-technologies-for-europe-platform-(‘step’)", "Strategic Technologies for Europe Platform (‘STEP’) ")</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-supercomputer-capacity-for-artificial-intelligence-start-ups", "European supercomputer capacity for artificial intelligence start-ups")</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-improving-working-conditions-of-platform-workers", "Initiative to improve the working conditions of people working in the platform economy")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-single-market-emergency-instrument", "Single market emergency instrument")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-european-cyber-resilience-act", "Horizontal cybersecurity requirements for products with digital elements")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-design-directive-and-of-the-community-design-regulation", "Revision of the Community Design Regulation")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-product-liability-directive", "New Product Liability Directive")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-cyber-solidarity-act", "Regulation on measures to strengthen solidarity and capacities in the Union to detect, prepare for and respond to cybersecurity threats and incidents")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-revision-of-the-design-directive-(recast)", "Revision of the Design Directive (Recast)")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-managed-security-services", "Managed security services")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smei-package-regulation-on-emergency-procedures", "Proposal for a regulation on emergency procedures for the conformity assessment,
-adoption of common specifications and market surveillance due to a Single Market
-emergency")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smei-package-directive-on-emergency-procedures", "Proposal for a directive of the European Parliament and of the Council on emergency procedures for the
-conformity assessment, adoption of common specifications and market surveillance due to a Single Market emergency")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-e-privacy-reform", " Proposal for a regulation on privacy and electronic communications")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-allocation-of-slots-at-eu-airports-common-rules-recast", "Allocation of slots at EU airports: common rules - recast")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-jd-common-rules-for-coach-and-bus-services", " Common rules for access to the international market for coach and bus services")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-discontinuing-seasonal-changes-of-time", "Directive discontinuing seasonal changes of time")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-education-action-plan", "Digital education action plan (2021-2027)")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-new-open-finance-frameworkb", "Legislative proposal for a new open finance framework")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-supplementary-protection-certificates", "Revision of the legislation on supplementary protection certificates for plant protection products (RECAST) ")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-piracy-of-live-content", "Recommendation on piracy of live content")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-ai-liability-directive", "AI liability directive")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-late-payments-directive-revision", "Revision of the late payments directive")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-digital-tools-and-processes-in-company-law", "Initiative to expand and upgrade the use of digital tools and processes in company law")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-patent-licensing-package-1", "Standard essential patents (SEP) regulation ")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-patent-licensing-package-2-1", "Unitary supplementary protection certificate for plant protection products")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-compulsory-licensing-of-patents-for-crisis-management", "Proposal for a regulation on compulsory licensing for crisis management and amending Regulation (EC) 816/2006")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-unitary-supplementary-certificate-for-medicinal-products", "Unitary supplementary certificate for medicinal products")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-supplementary-protection-certificates-for-medicinal-products", "Revision of the legislation on supplementary protection certificates for medicinal products (Recast)")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-market-surveillance-of-products", "Market surveillance of products")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-services-e-card", "Services e-card")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-smit", "Single Market Information Tool (SMIT)")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-services-notification-procedure", "Services notification procedure")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f>HYPERLINK("https://www.europarl.europa.eu/legislative-train/theme-a-europe-fit-for-the-digital-age/file-type-approval-of-motor-vehicles-conformity-factors-for-nox-emissions", "Amendment of type approval rules for motor vehicles with respect to conformity factors for NOx emissions")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>366</v>
+      <c r="G5" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
